--- a/plantillas/Inicio-Cierre_Validacion.xlsx
+++ b/plantillas/Inicio-Cierre_Validacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A103B5-4628-47D4-A61B-42AEED383405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F81B6-A86A-41A4-8425-39DC564B649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA INICIO Y CIERRE" sheetId="1" r:id="rId1"/>
@@ -65,11 +65,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -183,32 +190,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -216,24 +268,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U11"/>
+  <dimension ref="A2:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,219 +602,248 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K7" s="16"/>
-      <c r="T7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="T7" s="9"/>
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K8" s="16"/>
-      <c r="T8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+    </row>
+    <row r="12" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
